--- a/input/3Var_Mixed1.xlsx
+++ b/input/3Var_Mixed1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -470,19 +470,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.136228940458879</v>
+        <v>0.1237434417091066</v>
       </c>
       <c r="C2" t="n">
         <v>0.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05222016975761867</v>
+        <v>0.1196842955930647</v>
       </c>
       <c r="E2" t="n">
-        <v>50.74538247478648</v>
+        <v>50.70008245461636</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3358580215410587</v>
+        <v>0.3108507183785727</v>
       </c>
     </row>
     <row r="3">
@@ -490,19 +490,19 @@
         <v>1.473684210526316</v>
       </c>
       <c r="B3" t="n">
-        <v>0.136513850772463</v>
+        <v>0.1651129746684594</v>
       </c>
       <c r="C3" t="n">
         <v>0.7368421052631579</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1100841374610023</v>
+        <v>0.07790485870206466</v>
       </c>
       <c r="E3" t="n">
-        <v>35.76523679723025</v>
+        <v>35.71534349516163</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3169368317041665</v>
+        <v>0.2297039605243099</v>
       </c>
     </row>
     <row r="4">
@@ -510,19 +510,19 @@
         <v>1.947368421052631</v>
       </c>
       <c r="B4" t="n">
-        <v>0.250552170239597</v>
+        <v>0.1945971317399702</v>
       </c>
       <c r="C4" t="n">
         <v>0.9736842105263157</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07786681624395331</v>
+        <v>0.1381216374723471</v>
       </c>
       <c r="E4" t="n">
-        <v>27.79686086434848</v>
+        <v>27.50637666811603</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2399483509399739</v>
+        <v>0.2546404718858186</v>
       </c>
     </row>
     <row r="5">
@@ -530,19 +530,19 @@
         <v>2.421052631578947</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2676806539557289</v>
+        <v>0.2984227044273154</v>
       </c>
       <c r="C5" t="n">
         <v>1.210526315789474</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05016846292939112</v>
+        <v>0.09791623549621251</v>
       </c>
       <c r="E5" t="n">
-        <v>22.98623930493861</v>
+        <v>23.79511536103578</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2070824410224709</v>
+        <v>0.2735055151383461</v>
       </c>
     </row>
     <row r="6">
@@ -550,19 +550,19 @@
         <v>2.894736842105263</v>
       </c>
       <c r="B6" t="n">
-        <v>0.151363680714627</v>
+        <v>0.2575306429852456</v>
       </c>
       <c r="C6" t="n">
         <v>1.447368421052631</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1096272046619791</v>
+        <v>0.09123370543321095</v>
       </c>
       <c r="E6" t="n">
-        <v>20.08669317265856</v>
+        <v>19.55354180051168</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3522561106731639</v>
+        <v>0.3310777790444115</v>
       </c>
     </row>
     <row r="7">
@@ -570,19 +570,19 @@
         <v>3.368421052631579</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1031323259072005</v>
+        <v>0.1205744428878326</v>
       </c>
       <c r="C7" t="n">
         <v>1.684210526315789</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1207051973086709</v>
+        <v>0.1338928226020349</v>
       </c>
       <c r="E7" t="n">
-        <v>18.0773629771946</v>
+        <v>17.89175653257555</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2591967419331049</v>
+        <v>0.3237905540932602</v>
       </c>
     </row>
     <row r="8">
@@ -590,19 +590,19 @@
         <v>3.842105263157895</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2593590109112869</v>
+        <v>0.2903065877030949</v>
       </c>
       <c r="C8" t="n">
         <v>1.921052631578947</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1096745862696424</v>
+        <v>0.1474343261998244</v>
       </c>
       <c r="E8" t="n">
-        <v>16.07138884405039</v>
+        <v>17.24357550765467</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3524360662166469</v>
+        <v>0.3060111889882698</v>
       </c>
     </row>
     <row r="9">
@@ -610,19 +610,19 @@
         <v>4.315789473684211</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1140167303222087</v>
+        <v>0.2650534613228793</v>
       </c>
       <c r="C9" t="n">
         <v>2.157894736842105</v>
       </c>
       <c r="D9" t="n">
-        <v>0.06057285125090756</v>
+        <v>0.113436633132458</v>
       </c>
       <c r="E9" t="n">
-        <v>15.60996726614522</v>
+        <v>16.19679484058293</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3555552921660022</v>
+        <v>0.3176174714332895</v>
       </c>
     </row>
     <row r="10">
@@ -630,19 +630,19 @@
         <v>4.789473684210526</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2525762098673938</v>
+        <v>0.1069799648846581</v>
       </c>
       <c r="C10" t="n">
         <v>2.394736842105263</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1158597187886863</v>
+        <v>0.09747201301159131</v>
       </c>
       <c r="E10" t="n">
-        <v>15.9287272338748</v>
+        <v>14.73732521861051</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2177888545730563</v>
+        <v>0.285285616062754</v>
       </c>
     </row>
     <row r="11">
@@ -650,19 +650,19 @@
         <v>5.263157894736842</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2832077964086817</v>
+        <v>0.1117397158165275</v>
       </c>
       <c r="C11" t="n">
         <v>2.631578947368421</v>
       </c>
       <c r="D11" t="n">
-        <v>0.09003526255481903</v>
+        <v>0.09511818230615347</v>
       </c>
       <c r="E11" t="n">
-        <v>14.21934309848413</v>
+        <v>14.63378371788991</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2025117702524564</v>
+        <v>0.2505989501941326</v>
       </c>
     </row>
     <row r="12">
@@ -670,19 +670,19 @@
         <v>5.736842105263158</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1929320709954392</v>
+        <v>0.2389153276298857</v>
       </c>
       <c r="C12" t="n">
         <v>2.868421052631579</v>
       </c>
       <c r="D12" t="n">
-        <v>0.05326370519274704</v>
+        <v>0.1493404564963725</v>
       </c>
       <c r="E12" t="n">
-        <v>14.4050339747881</v>
+        <v>15.20248679319954</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2963850252157153</v>
+        <v>0.2920134270395738</v>
       </c>
     </row>
     <row r="13">
@@ -690,19 +690,19 @@
         <v>6.210526315789473</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1094884950779471</v>
+        <v>0.1234063153000358</v>
       </c>
       <c r="C13" t="n">
         <v>3.105263157894737</v>
       </c>
       <c r="D13" t="n">
-        <v>0.07659253720683926</v>
+        <v>0.08172077756908988</v>
       </c>
       <c r="E13" t="n">
-        <v>14.56248015602705</v>
+        <v>13.48536236530232</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2518869551953635</v>
+        <v>0.2210044451840307</v>
       </c>
     </row>
     <row r="14">
@@ -710,19 +710,19 @@
         <v>6.684210526315789</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1224829156790489</v>
+        <v>0.1637043449097016</v>
       </c>
       <c r="C14" t="n">
         <v>3.342105263157895</v>
       </c>
       <c r="D14" t="n">
-        <v>0.09235989576213413</v>
+        <v>0.1211847624708794</v>
       </c>
       <c r="E14" t="n">
-        <v>14.41470805018631</v>
+        <v>13.26973472070217</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3381599659811567</v>
+        <v>0.3739776655641557</v>
       </c>
     </row>
     <row r="15">
@@ -730,19 +730,19 @@
         <v>7.157894736842105</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1585150587989397</v>
+        <v>0.1416137195523914</v>
       </c>
       <c r="C15" t="n">
         <v>3.578947368421053</v>
       </c>
       <c r="D15" t="n">
-        <v>0.05682357722596387</v>
+        <v>0.05858195690155565</v>
       </c>
       <c r="E15" t="n">
-        <v>14.81207182803097</v>
+        <v>14.18484577557363</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3797007218723266</v>
+        <v>0.3382202091551558</v>
       </c>
     </row>
     <row r="16">
@@ -750,19 +750,19 @@
         <v>7.63157894736842</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1685594928594729</v>
+        <v>0.1657415923017283</v>
       </c>
       <c r="C16" t="n">
         <v>3.81578947368421</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1164408983855433</v>
+        <v>0.1236512837913234</v>
       </c>
       <c r="E16" t="n">
-        <v>13.83923069172799</v>
+        <v>14.01144982241755</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3383207793719408</v>
+        <v>0.3954414105569229</v>
       </c>
     </row>
     <row r="17">
@@ -770,19 +770,19 @@
         <v>8.105263157894736</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2483239366626225</v>
+        <v>0.1521030928814036</v>
       </c>
       <c r="C17" t="n">
         <v>4.052631578947368</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1001896174754357</v>
+        <v>0.06395214164237525</v>
       </c>
       <c r="E17" t="n">
-        <v>13.8466415849705</v>
+        <v>14.26936307540018</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2229531456296089</v>
+        <v>0.3699104877016595</v>
       </c>
     </row>
     <row r="18">
@@ -790,19 +790,19 @@
         <v>8.578947368421051</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2592612364354961</v>
+        <v>0.2156421199695095</v>
       </c>
       <c r="C18" t="n">
         <v>4.289473684210526</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1489311514203052</v>
+        <v>0.09664268266212483</v>
       </c>
       <c r="E18" t="n">
-        <v>15.10128555742583</v>
+        <v>13.40450800653233</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3014794393140148</v>
+        <v>0.2314518626105827</v>
       </c>
     </row>
     <row r="19">
@@ -810,19 +810,19 @@
         <v>9.052631578947368</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1274630868970343</v>
+        <v>0.1520633567910731</v>
       </c>
       <c r="C19" t="n">
         <v>4.526315789473684</v>
       </c>
       <c r="D19" t="n">
-        <v>0.09864406822103483</v>
+        <v>0.09365213748078141</v>
       </c>
       <c r="E19" t="n">
-        <v>14.74082204011082</v>
+        <v>14.42913596613205</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3066642751018112</v>
+        <v>0.3951883294469988</v>
       </c>
     </row>
     <row r="20">
@@ -830,19 +830,19 @@
         <v>9.526315789473683</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1927643851988692</v>
+        <v>0.2250188688028919</v>
       </c>
       <c r="C20" t="n">
         <v>4.763157894736842</v>
       </c>
       <c r="D20" t="n">
-        <v>0.07095044945325646</v>
+        <v>0.1481841363105223</v>
       </c>
       <c r="E20" t="n">
-        <v>14.08768084515567</v>
+        <v>14.6713028939412</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3656112334082235</v>
+        <v>0.2135786459926527</v>
       </c>
     </row>
     <row r="21">
@@ -850,19 +850,19 @@
         <v>10</v>
       </c>
       <c r="B21" t="n">
-        <v>0.2832486468318136</v>
+        <v>0.1128081393942871</v>
       </c>
       <c r="C21" t="n">
         <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1253851946000944</v>
+        <v>0.09446184442918287</v>
       </c>
       <c r="E21" t="n">
-        <v>14.47590298122401</v>
+        <v>14.99892619187818</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2161758692918305</v>
+        <v>0.2407511775494566</v>
       </c>
     </row>
   </sheetData>
